--- a/Gold Project/Test1GoldProj.xlsx
+++ b/Gold Project/Test1GoldProj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KACronin001\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eac4419f40e0e0a/Documents/Class stuff/GoldProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B15A7-B561-4D23-AEF9-016FA183ED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{531B15A7-B561-4D23-AEF9-016FA183ED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B78649-FAF4-48DF-9ABF-AA759CBF51F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73C46AC1-75C4-4C77-A6F7-39250E3D8AA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73C46AC1-75C4-4C77-A6F7-39250E3D8AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Column not in use </t>
   </si>
@@ -88,16 +88,36 @@
   </si>
   <si>
     <t>email address</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>rlpatterson001@converse.edu</t>
+  </si>
+  <si>
+    <t>rlp6264@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,14 +140,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -144,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -290,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -440,25 +462,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDC5FD-F3F0-41C1-B0E0-50972801BB5A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
+    <col min="8" max="9" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -481,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -494,14 +516,14 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -511,11 +533,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -523,18 +545,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{06362BCA-287F-4EF5-8EE8-9E5BF13723EF}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{28195645-AC1F-495E-B49D-5FB953C78824}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>